--- a/biology/Zoologie/Characodon/Characodon.xlsx
+++ b/biology/Zoologie/Characodon/Characodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Characodon est un genre[1] de poisson de la famille des Goodeidae et de l'ordre des Cyprinodontiformes. Ce genre est endémique du Mexique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Characodon est un genre de poisson de la famille des Goodeidae et de l'ordre des Cyprinodontiformes. Ce genre est endémique du Mexique.
 </t>
         </is>
       </c>
@@ -511,21 +523,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (30 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (30 juillet 2017) :
 Characodon audax Smith &amp; Miller, 1986
 Characodon garmani Jordan &amp; Evermann, 1898
 Characodon lateralis Günther, 1866
-Selon World Register of Marine Species                               (30 juillet 2017)[3] :
+Selon World Register of Marine Species                               (30 juillet 2017) :
 Characodon audax Smith &amp; Miller, 1986
 Characodon garmani Jordan &amp; Evermann, 1898
 Characodon lateralis Günther, 1866
-Characodon luitpoldii Steindachner, 1894
-RedList IUCN
-Characodon audax - Statut Vulnérable[4]
-Characodon garmani - Statut Éteint[5]
-Characodon lateralis - En Danger d'Extinction[6]</t>
+Characodon luitpoldii Steindachner, 1894</t>
         </is>
       </c>
     </row>
@@ -550,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>RedList IUCN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Characodon audax - Statut Vulnérable
+Characodon garmani - Statut Éteint
+Characodon lateralis - En Danger d'Extinction</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Characodon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Characodon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est à maintenir dans les meilleures conditions en aquarium afin de les diffuser de manière exemplaire.
 </t>
